--- a/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T20:41:03+00:00</t>
+    <t>2024-09-30T20:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T20:48:02+00:00</t>
+    <t>2024-10-01T15:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,6 +94,39 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Lebend</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Lebend mit Therapiereduktion</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Gestorben</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Gestorben mit Therapiereduktion</t>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://tbd.at/MOPED-encounter-abgangsart</t>
   </si>
 </sst>
 </file>
@@ -353,4 +387,77 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T15:25:51+00:00</t>
+    <t>2024-10-01T15:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
+++ b/r5-ELGA-MOPED-POC-IG-Teil-1/ValueSet-moped-abgangsart-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T15:31:56+00:00</t>
+    <t>2024-10-02T12:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
